--- a/DraftModels/merlin (BIT)/Ficheiros/biomass_report.xlsx
+++ b/DraftModels/merlin (BIT)/Ficheiros/biomass_report.xlsx
@@ -9,14 +9,13 @@
     <sheet name="e-Biomass" r:id="rId3" sheetId="1"/>
     <sheet name="e-Cofactor" r:id="rId4" sheetId="2"/>
     <sheet name="e-Protein" r:id="rId5" sheetId="3"/>
-    <sheet name="e-DNA" r:id="rId6" sheetId="4"/>
-    <sheet name="e-RNA" r:id="rId7" sheetId="5"/>
+    <sheet name="e-RNA" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>e-Biomass</t>
   </si>
@@ -39,25 +38,100 @@
     <t>Stoichiometry</t>
   </si>
   <si>
+    <t>e-Protein</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>e-DNA</t>
+  </si>
+  <si>
     <t>e-RNA</t>
   </si>
   <si>
-    <t>OTHER</t>
+    <t>e-Cofactor</t>
+  </si>
+  <si>
+    <t>e-Lipid</t>
   </si>
   <si>
     <t>e-Carbohydrate</t>
   </si>
   <si>
-    <t>e-DNA</t>
-  </si>
-  <si>
-    <t>e-Cofactor</t>
-  </si>
-  <si>
-    <t>e-Protein</t>
-  </si>
-  <si>
-    <t>e-Lipid</t>
+    <t>Glutathione</t>
+  </si>
+  <si>
+    <t>C00051</t>
+  </si>
+  <si>
+    <t>cofactor</t>
+  </si>
+  <si>
+    <t>Riboflavin</t>
+  </si>
+  <si>
+    <t>C00255</t>
+  </si>
+  <si>
+    <t>ubiquinone</t>
+  </si>
+  <si>
+    <t>C00399</t>
+  </si>
+  <si>
+    <t>NADP</t>
+  </si>
+  <si>
+    <t>C00005</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>C00019</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>C00003</t>
+  </si>
+  <si>
+    <t>FMN</t>
+  </si>
+  <si>
+    <t>C00061</t>
+  </si>
+  <si>
+    <t>heme</t>
+  </si>
+  <si>
+    <t>C00032</t>
+  </si>
+  <si>
+    <t>THF</t>
+  </si>
+  <si>
+    <t>C00101</t>
+  </si>
+  <si>
+    <t>Pyridoxal phosphate</t>
+  </si>
+  <si>
+    <t>C00018</t>
+  </si>
+  <si>
+    <t>thiamine</t>
+  </si>
+  <si>
+    <t>C00378</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>C00016</t>
   </si>
   <si>
     <t>CoA</t>
@@ -66,79 +140,214 @@
     <t>C00010</t>
   </si>
   <si>
-    <t>cofactor</t>
-  </si>
-  <si>
-    <t>Glutathione</t>
-  </si>
-  <si>
-    <t>C00051</t>
-  </si>
-  <si>
-    <t>FMN</t>
-  </si>
-  <si>
-    <t>C00061</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>C00019</t>
-  </si>
-  <si>
-    <t>Pyridoxal phosphate</t>
-  </si>
-  <si>
-    <t>C00018</t>
-  </si>
-  <si>
-    <t>THF</t>
-  </si>
-  <si>
-    <t>C00101</t>
-  </si>
-  <si>
-    <t>NADP</t>
-  </si>
-  <si>
-    <t>C00005</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>C00016</t>
-  </si>
-  <si>
-    <t>thiamine</t>
-  </si>
-  <si>
-    <t>C00378</t>
-  </si>
-  <si>
-    <t>ubiquinone</t>
-  </si>
-  <si>
-    <t>C00399</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>C00003</t>
-  </si>
-  <si>
-    <t>heme</t>
-  </si>
-  <si>
-    <t>C00032</t>
-  </si>
-  <si>
-    <t>Riboflavin</t>
-  </si>
-  <si>
-    <t>C00255</t>
+    <t>Glutaminyl-tRNA</t>
+  </si>
+  <si>
+    <t>C02282</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>L-Phenylalanyl-tRNA(Phe)</t>
+  </si>
+  <si>
+    <t>C03511</t>
+  </si>
+  <si>
+    <t>tRNA(Phe)</t>
+  </si>
+  <si>
+    <t>C01648</t>
+  </si>
+  <si>
+    <t>tRNA(Tyr)</t>
+  </si>
+  <si>
+    <t>C00787</t>
+  </si>
+  <si>
+    <t>tRNA(Gln)</t>
+  </si>
+  <si>
+    <t>C01640</t>
+  </si>
+  <si>
+    <t>tRNA(Leu)</t>
+  </si>
+  <si>
+    <t>C01645</t>
+  </si>
+  <si>
+    <t>tRNA(ala)</t>
+  </si>
+  <si>
+    <t>C01635</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>L-Glutamyl-tRNA(Glu)</t>
+  </si>
+  <si>
+    <t>C02987</t>
+  </si>
+  <si>
+    <t>L-Asparaginyl-tRNA(Asn)</t>
+  </si>
+  <si>
+    <t>C03402</t>
+  </si>
+  <si>
+    <t>L-Threonyl-tRNA(Thr)</t>
+  </si>
+  <si>
+    <t>C02992</t>
+  </si>
+  <si>
+    <t>L-Isoleucyl-tRNA(Ile)</t>
+  </si>
+  <si>
+    <t>C03127</t>
+  </si>
+  <si>
+    <t>L-Prolyl-tRNA(Pro)</t>
+  </si>
+  <si>
+    <t>C02702</t>
+  </si>
+  <si>
+    <t>L-Arginyl-tRNA(Arg)</t>
+  </si>
+  <si>
+    <t>C02163</t>
+  </si>
+  <si>
+    <t>tRNA(Glu)</t>
+  </si>
+  <si>
+    <t>C01641</t>
+  </si>
+  <si>
+    <t>tRNA(Pro)</t>
+  </si>
+  <si>
+    <t>C01649</t>
+  </si>
+  <si>
+    <t>tRNA(Trp)</t>
+  </si>
+  <si>
+    <t>C01652</t>
+  </si>
+  <si>
+    <t>L-Histidyl-tRNA(His)</t>
+  </si>
+  <si>
+    <t>C02988</t>
+  </si>
+  <si>
+    <t>L-Aspartyl-tRNA(Asp)</t>
+  </si>
+  <si>
+    <t>C02984</t>
+  </si>
+  <si>
+    <t>tRNA(Cys)</t>
+  </si>
+  <si>
+    <t>C01639</t>
+  </si>
+  <si>
+    <t>tRNA(Asp)</t>
+  </si>
+  <si>
+    <t>C01638</t>
+  </si>
+  <si>
+    <t>L-Valyl-tRNA(Val)</t>
+  </si>
+  <si>
+    <t>C02554</t>
+  </si>
+  <si>
+    <t>L-Tryptophanyl-tRNA(Trp)</t>
+  </si>
+  <si>
+    <t>C03512</t>
+  </si>
+  <si>
+    <t>tRNA(Thr)</t>
+  </si>
+  <si>
+    <t>C01651</t>
+  </si>
+  <si>
+    <t>L-Seryl-tRNA(Ser)</t>
+  </si>
+  <si>
+    <t>C02553</t>
+  </si>
+  <si>
+    <t>tRNA(Met)</t>
+  </si>
+  <si>
+    <t>C01647</t>
+  </si>
+  <si>
+    <t>L-Methionyl-tRNA</t>
+  </si>
+  <si>
+    <t>C02430</t>
+  </si>
+  <si>
+    <t>L-Lysyl-tRNA</t>
+  </si>
+  <si>
+    <t>C01931</t>
+  </si>
+  <si>
+    <t>tRNA(Ser)</t>
+  </si>
+  <si>
+    <t>C01650</t>
+  </si>
+  <si>
+    <t>tRNA(Gly)</t>
+  </si>
+  <si>
+    <t>C01642</t>
+  </si>
+  <si>
+    <t>tRNA(His)</t>
+  </si>
+  <si>
+    <t>C01643</t>
+  </si>
+  <si>
+    <t>L-Leucyl-tRNA</t>
+  </si>
+  <si>
+    <t>C02047</t>
+  </si>
+  <si>
+    <t>Glycyl-tRNA(Gly)</t>
+  </si>
+  <si>
+    <t>C02412</t>
+  </si>
+  <si>
+    <t>tRNA(Asn)</t>
+  </si>
+  <si>
+    <t>C01637</t>
   </si>
   <si>
     <t>tRNA(Lys)</t>
@@ -147,43 +356,16 @@
     <t>C01646</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>tRNA(Glu)</t>
-  </si>
-  <si>
-    <t>C01641</t>
-  </si>
-  <si>
-    <t>L-Isoleucyl-tRNA(Ile)</t>
-  </si>
-  <si>
-    <t>C03127</t>
-  </si>
-  <si>
-    <t>Glutaminyl-tRNA</t>
-  </si>
-  <si>
-    <t>C02282</t>
-  </si>
-  <si>
-    <t>tRNA(Ser)</t>
-  </si>
-  <si>
-    <t>C01650</t>
-  </si>
-  <si>
-    <t>L-Methionyl-tRNA</t>
-  </si>
-  <si>
-    <t>C02430</t>
-  </si>
-  <si>
-    <t>L-Seryl-tRNA(Ser)</t>
-  </si>
-  <si>
-    <t>C02553</t>
+    <t>L-Tyrosyl-tRNA(Tyr)</t>
+  </si>
+  <si>
+    <t>C02839</t>
+  </si>
+  <si>
+    <t>tRNA(Ile)</t>
+  </si>
+  <si>
+    <t>C01644</t>
   </si>
   <si>
     <t>L-Alanyl-tRNA</t>
@@ -192,67 +374,16 @@
     <t>C00886</t>
   </si>
   <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>C00001</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>L-Prolyl-tRNA(Pro)</t>
-  </si>
-  <si>
-    <t>C02702</t>
-  </si>
-  <si>
-    <t>tRNA(Pro)</t>
-  </si>
-  <si>
-    <t>C01649</t>
-  </si>
-  <si>
-    <t>Glycyl-tRNA(Gly)</t>
-  </si>
-  <si>
-    <t>C02412</t>
-  </si>
-  <si>
-    <t>tRNA(His)</t>
-  </si>
-  <si>
-    <t>C01643</t>
-  </si>
-  <si>
-    <t>tRNA(Leu)</t>
-  </si>
-  <si>
-    <t>C01645</t>
-  </si>
-  <si>
-    <t>L-Glutamyl-tRNA(Glu)</t>
-  </si>
-  <si>
-    <t>C02987</t>
-  </si>
-  <si>
-    <t>L-Arginyl-tRNA(Arg)</t>
-  </si>
-  <si>
-    <t>C02163</t>
-  </si>
-  <si>
-    <t>tRNA(ala)</t>
-  </si>
-  <si>
-    <t>C01635</t>
-  </si>
-  <si>
-    <t>tRNA(Phe)</t>
-  </si>
-  <si>
-    <t>C01648</t>
+    <t>tRNA(Val)</t>
+  </si>
+  <si>
+    <t>C01653</t>
+  </si>
+  <si>
+    <t>L-Cysteinyl-tRNA(Cys)</t>
+  </si>
+  <si>
+    <t>C03125</t>
   </si>
   <si>
     <t>tRNA(Arg)</t>
@@ -261,196 +392,37 @@
     <t>C01636</t>
   </si>
   <si>
-    <t>L-Lysyl-tRNA</t>
-  </si>
-  <si>
-    <t>C01931</t>
-  </si>
-  <si>
-    <t>tRNA(Thr)</t>
-  </si>
-  <si>
-    <t>C01651</t>
-  </si>
-  <si>
-    <t>L-Phenylalanyl-tRNA(Phe)</t>
-  </si>
-  <si>
-    <t>C03511</t>
-  </si>
-  <si>
-    <t>L-Leucyl-tRNA</t>
-  </si>
-  <si>
-    <t>C02047</t>
-  </si>
-  <si>
-    <t>tRNA(Trp)</t>
-  </si>
-  <si>
-    <t>C01652</t>
-  </si>
-  <si>
-    <t>L-Asparaginyl-tRNA(Asn)</t>
-  </si>
-  <si>
-    <t>C03402</t>
-  </si>
-  <si>
-    <t>L-Aspartyl-tRNA(Asp)</t>
-  </si>
-  <si>
-    <t>C02984</t>
-  </si>
-  <si>
-    <t>tRNA(Asn)</t>
-  </si>
-  <si>
-    <t>C01637</t>
-  </si>
-  <si>
-    <t>tRNA(Met)</t>
-  </si>
-  <si>
-    <t>C01647</t>
-  </si>
-  <si>
-    <t>L-Tyrosyl-tRNA(Tyr)</t>
-  </si>
-  <si>
-    <t>C02839</t>
-  </si>
-  <si>
-    <t>L-Valyl-tRNA(Val)</t>
-  </si>
-  <si>
-    <t>C02554</t>
-  </si>
-  <si>
-    <t>tRNA(Gln)</t>
-  </si>
-  <si>
-    <t>C01640</t>
-  </si>
-  <si>
-    <t>L-Histidyl-tRNA(His)</t>
-  </si>
-  <si>
-    <t>C02988</t>
-  </si>
-  <si>
-    <t>tRNA(Tyr)</t>
-  </si>
-  <si>
-    <t>C00787</t>
-  </si>
-  <si>
-    <t>tRNA(Asp)</t>
-  </si>
-  <si>
-    <t>C01638</t>
-  </si>
-  <si>
-    <t>L-Threonyl-tRNA(Thr)</t>
-  </si>
-  <si>
-    <t>C02992</t>
-  </si>
-  <si>
-    <t>L-Tryptophanyl-tRNA(Trp)</t>
-  </si>
-  <si>
-    <t>C03512</t>
-  </si>
-  <si>
-    <t>tRNA(Gly)</t>
-  </si>
-  <si>
-    <t>C01642</t>
-  </si>
-  <si>
-    <t>tRNA(Ile)</t>
-  </si>
-  <si>
-    <t>C01644</t>
-  </si>
-  <si>
-    <t>tRNA(Cys)</t>
-  </si>
-  <si>
-    <t>C01639</t>
-  </si>
-  <si>
-    <t>L-Cysteinyl-tRNA(Cys)</t>
-  </si>
-  <si>
-    <t>C03125</t>
-  </si>
-  <si>
-    <t>tRNA(Val)</t>
-  </si>
-  <si>
-    <t>C01653</t>
-  </si>
-  <si>
-    <t>dCTP</t>
-  </si>
-  <si>
-    <t>C00458</t>
-  </si>
-  <si>
-    <t>dna</t>
-  </si>
-  <si>
-    <t>dATP</t>
-  </si>
-  <si>
-    <t>C00131</t>
-  </si>
-  <si>
-    <t>dTTP</t>
-  </si>
-  <si>
-    <t>C00459</t>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C00044</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C00063</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>C00002</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C00075</t>
   </si>
   <si>
     <t>PPI</t>
   </si>
   <si>
     <t>C00013</t>
-  </si>
-  <si>
-    <t>dGTP</t>
-  </si>
-  <si>
-    <t>C00286</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>C00002</t>
-  </si>
-  <si>
-    <t>rna</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>C00063</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>C00075</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>C00044</t>
   </si>
 </sst>
 </file>
@@ -538,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>323.6883256884433</v>
+        <v>111.67118208220542</v>
       </c>
       <c r="E4" t="n">
-        <v>8484.0</v>
+        <v>8482.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.227</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +533,10 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8487.0</v>
+        <v>8483.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="6">
@@ -578,13 +550,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>308.8251950516655</v>
+        <v>323.6883256884433</v>
       </c>
       <c r="E6" t="n">
-        <v>8483.0</v>
+        <v>8484.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.034</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>111.6711820822054</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>8482.0</v>
+        <v>8486.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.61</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -641,7 +613,7 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>8486.0</v>
+        <v>8487.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
@@ -717,10 +689,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>767.5341</v>
+        <v>307.3235</v>
       </c>
       <c r="E4" t="n">
-        <v>2315.0</v>
+        <v>2763.0</v>
       </c>
       <c r="F4" t="n">
         <v>1.0E-6</v>
@@ -737,10 +709,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3235</v>
+        <v>376.3639</v>
       </c>
       <c r="E5" t="n">
-        <v>2763.0</v>
+        <v>3562.0</v>
       </c>
       <c r="F5" t="n">
         <v>1.0E-6</v>
@@ -757,10 +729,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>456.3438</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2778.0</v>
+        <v>746.0</v>
       </c>
       <c r="F6" t="n">
         <v>1.0E-6</v>
@@ -777,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>398.4374</v>
+        <v>745.4209</v>
       </c>
       <c r="E7" t="n">
-        <v>2324.0</v>
+        <v>2306.0</v>
       </c>
       <c r="F7" t="n">
         <v>1.0E-6</v>
@@ -797,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>247.1419</v>
+        <v>398.4374</v>
       </c>
       <c r="E8" t="n">
-        <v>2326.0</v>
+        <v>2324.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0E-6</v>
@@ -817,10 +789,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>445.4292</v>
+        <v>664.433</v>
       </c>
       <c r="E9" t="n">
-        <v>4061.0</v>
+        <v>2309.0</v>
       </c>
       <c r="F9" t="n">
         <v>1.0E-6</v>
@@ -837,10 +809,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>745.4209</v>
+        <v>456.3438</v>
       </c>
       <c r="E10" t="n">
-        <v>2306.0</v>
+        <v>2778.0</v>
       </c>
       <c r="F10" t="n">
         <v>1.0E-6</v>
@@ -857,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>785.5497</v>
+        <v>616.4873</v>
       </c>
       <c r="E11" t="n">
-        <v>2329.0</v>
+        <v>2731.0</v>
       </c>
       <c r="F11" t="n">
         <v>1.0E-6</v>
@@ -877,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>265.3546</v>
+        <v>445.4292</v>
       </c>
       <c r="E12" t="n">
-        <v>1153.0</v>
+        <v>4061.0</v>
       </c>
       <c r="F12" t="n">
         <v>1.0E-6</v>
@@ -897,10 +869,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>247.1419</v>
       </c>
       <c r="E13" t="n">
-        <v>746.0</v>
+        <v>2326.0</v>
       </c>
       <c r="F13" t="n">
         <v>1.0E-6</v>
@@ -937,10 +909,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>664.433</v>
+        <v>265.3546</v>
       </c>
       <c r="E15" t="n">
-        <v>2309.0</v>
+        <v>1153.0</v>
       </c>
       <c r="F15" t="n">
         <v>1.0E-6</v>
@@ -957,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>616.4873</v>
+        <v>785.5497</v>
       </c>
       <c r="E16" t="n">
-        <v>2731.0</v>
+        <v>2329.0</v>
       </c>
       <c r="F16" t="n">
         <v>1.0E-6</v>
@@ -977,10 +949,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>376.3639</v>
+        <v>767.5341</v>
       </c>
       <c r="E17" t="n">
-        <v>3562.0</v>
+        <v>2315.0</v>
       </c>
       <c r="F17" t="n">
         <v>1.0E-6</v>
@@ -1001,7 +973,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2"/>
@@ -1027,30 +999,30 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>111.67118208220542</v>
       </c>
       <c r="E4" t="n">
-        <v>893.0</v>
+        <v>8482.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6234883521306459</v>
+        <v>-10.67738595555868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -1059,18 +1031,18 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>916.0</v>
+        <v>4981.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6463159860960278</v>
+        <v>0.2675899032446115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1079,18 +1051,18 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7028.0</v>
+        <v>4822.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7651947988121867</v>
+        <v>0.3684567746401403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -1099,18 +1071,18 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4981.0</v>
+        <v>897.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.26758990324461157</v>
+        <v>-0.3684567746401403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -1119,18 +1091,18 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>945.0</v>
+        <v>7078.0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5622977848108385</v>
+        <v>-0.31224450776867363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -1139,18 +1111,18 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5698.0</v>
+        <v>915.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25210463702590313</v>
+        <v>-0.2675899032446115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1159,18 +1131,18 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2978.0</v>
+        <v>892.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5622977848108385</v>
+        <v>-0.8536284273794471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -1179,21 +1151,21 @@
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>6733.0</v>
+        <v>875.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5664255213634829</v>
+        <v>-0.5664255213634829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
       </c>
       <c r="D12" t="n">
         <v>18.0153</v>
@@ -1202,15 +1174,15 @@
         <v>2281.0</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.954861776817785</v>
+        <v>-8.954861776817781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1219,18 +1191,18 @@
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4328.0</v>
+        <v>925.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.35227104403674075</v>
+        <v>0.6463159860960278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1239,18 +1211,18 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>898.0</v>
+        <v>5256.0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.35227104403674075</v>
+        <v>0.44334392233917685</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -1259,18 +1231,18 @@
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5671.0</v>
+        <v>1009.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6363844017845136</v>
+        <v>0.4893494224622863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1279,18 +1251,18 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>889.0</v>
+        <v>7028.0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1635584338253887</v>
+        <v>0.7651947988121865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -1299,18 +1271,18 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>892.0</v>
+        <v>4328.0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8536284273794473</v>
+        <v>0.3522710440367407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -1319,18 +1291,18 @@
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>925.0</v>
+        <v>5391.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6463159860960278</v>
+        <v>0.34329008996159316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -1339,18 +1311,18 @@
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5391.0</v>
+        <v>916.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3432900899615932</v>
+        <v>-0.6463159860960278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -1359,18 +1331,18 @@
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>875.0</v>
+        <v>898.0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5664255213634829</v>
+        <v>-0.3522710440367407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1379,18 +1351,18 @@
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>897.0</v>
+        <v>955.0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.36845677464014037</v>
+        <v>-0.07905240912943227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1399,18 +1371,18 @@
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>876.0</v>
+        <v>926.0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3432900899615932</v>
+        <v>0.16355843382538868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1419,18 +1391,18 @@
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1170.0</v>
+        <v>919.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6234883521306459</v>
+        <v>0.5029959696711804</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -1439,18 +1411,18 @@
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>949.0</v>
+        <v>879.0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4893494224622863</v>
+        <v>-0.10039155627734549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -1459,18 +1431,18 @@
         <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>4822.0</v>
+        <v>878.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.36845677464014037</v>
+        <v>-0.5029959696711804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -1479,18 +1451,18 @@
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>7780.0</v>
+        <v>2980.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8536284273794473</v>
+        <v>0.6264778340581669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -1499,18 +1471,18 @@
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>955.0</v>
+        <v>4792.0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07905240912943229</v>
+        <v>0.07905240912943227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1519,18 +1491,18 @@
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5256.0</v>
+        <v>949.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4433439223391769</v>
+        <v>-0.4893494224622863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -1539,18 +1511,18 @@
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>919.0</v>
+        <v>2978.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5029959696711804</v>
+        <v>0.5622977848108384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1559,18 +1531,18 @@
         <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>877.0</v>
+        <v>895.0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4433439223391769</v>
+        <v>-0.2521046370259031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
@@ -1579,30 +1551,30 @@
         <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>895.0</v>
+        <v>5698.0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.25210463702590313</v>
+        <v>0.2521046370259031</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D32" t="n">
-        <v>111.6711820822054</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>8482.0</v>
+        <v>1170.0</v>
       </c>
       <c r="F32" t="n">
-        <v>-10.677385955558682</v>
+        <v>0.6234883521306458</v>
       </c>
     </row>
     <row r="33">
@@ -1619,10 +1591,10 @@
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>3735.0</v>
+        <v>945.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3122445077686737</v>
+        <v>-0.5622977848108384</v>
       </c>
     </row>
     <row r="34">
@@ -1639,10 +1611,10 @@
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2980.0</v>
+        <v>887.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.626477834058167</v>
+        <v>-0.6363844017845135</v>
       </c>
     </row>
     <row r="35">
@@ -1659,10 +1631,10 @@
         <v>0.0</v>
       </c>
       <c r="E35" t="n">
-        <v>915.0</v>
+        <v>889.0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.26758990324461157</v>
+        <v>-0.16355843382538868</v>
       </c>
     </row>
     <row r="36">
@@ -1679,10 +1651,10 @@
         <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>926.0</v>
+        <v>7780.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1635584338253887</v>
+        <v>0.8536284273794471</v>
       </c>
     </row>
     <row r="37">
@@ -1699,10 +1671,10 @@
         <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>7078.0</v>
+        <v>5671.0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3122445077686737</v>
+        <v>0.6363844017845135</v>
       </c>
     </row>
     <row r="38">
@@ -1719,10 +1691,10 @@
         <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>878.0</v>
+        <v>877.0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5029959696711804</v>
+        <v>-0.44334392233917685</v>
       </c>
     </row>
     <row r="39">
@@ -1739,10 +1711,10 @@
         <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1009.0</v>
+        <v>893.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4893494224622863</v>
+        <v>-0.6234883521306458</v>
       </c>
     </row>
     <row r="40">
@@ -1759,10 +1731,10 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4792.0</v>
+        <v>3735.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07905240912943229</v>
+        <v>0.31224450776867363</v>
       </c>
     </row>
     <row r="41">
@@ -1779,10 +1751,10 @@
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>887.0</v>
+        <v>891.0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6363844017845136</v>
+        <v>-0.7651947988121865</v>
       </c>
     </row>
     <row r="42">
@@ -1799,10 +1771,10 @@
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>891.0</v>
+        <v>6733.0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.7651947988121867</v>
+        <v>0.5664255213634829</v>
       </c>
     </row>
     <row r="43">
@@ -1819,10 +1791,10 @@
         <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>879.0</v>
+        <v>920.0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1003915562773455</v>
+        <v>-0.6264778340581669</v>
       </c>
     </row>
     <row r="44">
@@ -1842,7 +1814,7 @@
         <v>7062.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1003915562773455</v>
+        <v>0.10039155627734549</v>
       </c>
     </row>
     <row r="45">
@@ -1859,10 +1831,10 @@
         <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>920.0</v>
+        <v>876.0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.626477834058167</v>
+        <v>-0.34329008996159316</v>
       </c>
     </row>
   </sheetData>
@@ -1915,13 +1887,13 @@
         <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>467.1569</v>
+        <v>523.1804</v>
       </c>
       <c r="E4" t="n">
-        <v>88.0</v>
+        <v>2745.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6259604809604273</v>
+        <v>0.9618638464689959</v>
       </c>
     </row>
     <row r="5">
@@ -1935,73 +1907,73 @@
         <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>491.1816</v>
+        <v>483.1563</v>
       </c>
       <c r="E5" t="n">
-        <v>4133.0</v>
+        <v>2776.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0208226701452918</v>
+        <v>0.7435097335329595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D6" t="n">
-        <v>308.8251950516655</v>
+        <v>507.181</v>
       </c>
       <c r="E6" t="n">
-        <v>8483.0</v>
+        <v>2277.0</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.642333004077337</v>
+        <v>0.7513851975151226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
       <c r="D7" t="n">
-        <v>482.1683</v>
+        <v>484.1411</v>
       </c>
       <c r="E7" t="n">
-        <v>87.0</v>
+        <v>2787.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9838303176848149</v>
+        <v>0.6326433027658328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>177.9751</v>
+        <v>323.6883256884433</v>
       </c>
       <c r="E8" t="n">
-        <v>2312.0</v>
+        <v>8484.0</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.238077773520723</v>
+        <v>-6.862910106749601</v>
       </c>
     </row>
     <row r="9">
@@ -2012,175 +1984,16 @@
         <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>507.181</v>
+        <v>177.9751</v>
       </c>
       <c r="E9" t="n">
-        <v>3975.0</v>
+        <v>2312.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6074643047301889</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>323.6883256884433</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8484.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-6.862910106749601</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" t="n">
-        <v>507.181</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2277.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7513851975151226</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="n">
-        <v>483.1563</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2776.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7435097335329595</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="n">
-        <v>484.1411</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2787.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6326433027658328</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>177.9751</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2312.0</v>
-      </c>
-      <c r="F8" t="n">
         <v>-3.0894020802829103</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="n">
-        <v>523.1804</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2745.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9618638464689959</v>
       </c>
     </row>
   </sheetData>
